--- a/Data/Men 2017.xlsx
+++ b/Data/Men 2017.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\FinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE7F462-3937-45D5-870D-148F11C66745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Women's earnings</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Construction laborers</t>
   </si>
   <si>
-    <t>Laborers and freight, stock, and material movers, hand</t>
-  </si>
-  <si>
     <t>Software developers, applications and systems software</t>
   </si>
   <si>
@@ -90,12 +88,51 @@
   </si>
   <si>
     <t>Stock clerks and order fillers</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Transportation and utilities</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Hand laborers and freight, stock, and material movers</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Retail trade</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Leisure and hospitalities</t>
+  </si>
+  <si>
+    <t>Wholesale trade</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
+  </si>
+  <si>
+    <t>Education and health services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,17 +464,24 @@
     <col min="1" max="1" width="64" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -447,8 +491,11 @@
       <c r="C2" s="3">
         <v>807</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -458,8 +505,11 @@
       <c r="C3" s="3">
         <v>1629</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -469,8 +519,11 @@
       <c r="C4" s="3">
         <v>667</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -480,10 +533,13 @@
       <c r="C5" s="3">
         <v>891</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>500</v>
@@ -491,10 +547,13 @@
       <c r="C6" s="3">
         <v>595</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>1543</v>
@@ -502,8 +561,11 @@
       <c r="C7" s="3">
         <v>1863</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -513,10 +575,13 @@
       <c r="C8" s="3">
         <v>704</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>481</v>
@@ -524,10 +589,13 @@
       <c r="C9" s="3">
         <v>574</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>436</v>
@@ -535,10 +603,13 @@
       <c r="C10" s="3">
         <v>481</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -546,10 +617,13 @@
       <c r="C11" s="3">
         <v>789</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>1920</v>
@@ -557,10 +631,13 @@
       <c r="C12" s="3">
         <v>2415</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -568,10 +645,13 @@
       <c r="C13" s="3">
         <v>526</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>956</v>
@@ -579,10 +659,13 @@
       <c r="C14" s="3">
         <v>1222</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -590,10 +673,13 @@
       <c r="C15" s="3">
         <v>764</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -601,10 +687,13 @@
       <c r="C16" s="3">
         <v>974</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>570</v>
@@ -612,8 +701,11 @@
       <c r="C17" s="3">
         <v>716</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -623,10 +715,13 @@
       <c r="C18" s="3">
         <v>712</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>538</v>
@@ -634,8 +729,11 @@
       <c r="C19" s="3">
         <v>571</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -645,8 +743,11 @@
       <c r="C20" s="3">
         <v>1389</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -655,6 +756,9 @@
       </c>
       <c r="C21" s="3">
         <v>1139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
